--- a/Projects/CCRU_SAND/Data/KPIs_2018/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Canteen PoS 2018.xlsx
@@ -13,25 +13,30 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$45</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="225">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -174,19 +179,22 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">Canteen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Представленность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">RD38010011</t>
   </si>
   <si>
     <t xml:space="preserve">STANDARD 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canteen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
   </si>
   <si>
     <t xml:space="preserve">Ассортимент</t>
@@ -433,12 +441,15 @@
     <t xml:space="preserve">Добрый - Персик-Яблоко - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">Activation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Активации</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Активация</t>
   </si>
   <si>
@@ -496,10 +507,13 @@
     <t xml:space="preserve">Cash Zone</t>
   </si>
   <si>
+    <t xml:space="preserve">Cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники</t>
+  </si>
+  <si>
     <t xml:space="preserve">STANDARD 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильник</t>
@@ -754,6 +768,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -774,17 +789,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -792,6 +810,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -799,6 +818,7 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -874,7 +894,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -893,10 +913,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1041,39 +1057,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:45"/>
+  <dimension ref="1:48"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.93522267206478"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="7.93522267206478"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="50.1255060728745"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.2955465587045"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="12.1983805668016"/>
-    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="11.753036437247"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="11.6113360323887"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="18.2226720647773"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.6396761133603"/>
-    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="11.6113360323887"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.2226720647773"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="40.2753036437247"/>
-    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.7125506072875"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="23" min="21" style="1" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="26" min="24" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="31" min="30" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="45.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1222,73 +1238,57 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="8"/>
+      <c r="AB2" s="7"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="7"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
@@ -1304,89 +1304,75 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J3" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="M3" s="5" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="10" t="n">
-        <v>0.024996</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="R3" s="5"/>
-      <c r="S3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="8" t="n">
-        <v>5449000008046</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ3" s="5"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AM3" s="5"/>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
@@ -1397,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>46</v>
@@ -1411,46 +1397,46 @@
       <c r="F4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K4" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="9" t="n">
         <v>0.024996</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -1460,25 +1446,25 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
-      <c r="AB4" s="8" t="n">
-        <v>5449000020987</v>
+      <c r="AB4" s="7" t="n">
+        <v>5449000008046</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
@@ -1490,13 +1476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
@@ -1504,92 +1490,92 @@
       <c r="F5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="12" t="n">
-        <v>0.014004</v>
+      <c r="P5" s="9" t="n">
+        <v>0.024996</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="8" t="n">
-        <v>54491472</v>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="7" t="n">
+        <v>5449000020987</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
-      <c r="AQ5" s="11"/>
+      <c r="AQ5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>46</v>
@@ -1597,92 +1583,92 @@
       <c r="F6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J6" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L6" s="10"/>
       <c r="M6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="10" t="n">
+      <c r="P6" s="11" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
       <c r="X6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="8" t="n">
-        <v>54491069</v>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="7" t="n">
+        <v>54491472</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
+      <c r="AQ6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>46</v>
@@ -1690,46 +1676,46 @@
       <c r="F7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K7" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="10" t="n">
+      <c r="P7" s="9" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -1739,25 +1725,25 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="8" t="n">
-        <v>40822938</v>
+      <c r="AB7" s="7" t="n">
+        <v>54491069</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
@@ -1769,13 +1755,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>46</v>
@@ -1783,46 +1769,46 @@
       <c r="F8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J8" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="10" t="n">
+      <c r="P8" s="9" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -1832,25 +1818,25 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
-      <c r="AB8" s="8" t="n">
-        <v>5449000000729</v>
+      <c r="AB8" s="7" t="n">
+        <v>40822938</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
@@ -1862,13 +1848,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>46</v>
@@ -1876,46 +1862,46 @@
       <c r="F9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="J9" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="P9" s="10" t="n">
-        <v>0.013992</v>
+      <c r="P9" s="9" t="n">
+        <v>0.014004</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -1925,11 +1911,11 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="8" t="n">
-        <v>5449000000712</v>
+      <c r="AB9" s="7" t="n">
+        <v>5449000000729</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1938,12 +1924,12 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
@@ -1955,73 +1941,89 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P10" s="9" t="n">
+        <v>0.013992</v>
+      </c>
       <c r="Q10" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="U10" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="5"/>
+      <c r="AB10" s="7" t="n">
+        <v>5449000000712</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="AJ10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
+      <c r="AM10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -2032,89 +2034,75 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="J11" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K11" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="M11" s="5" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="10" t="n">
-        <v>0.025004</v>
-      </c>
+      <c r="P11" s="5"/>
       <c r="Q11" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="8" t="n">
-        <v>90494956</v>
-      </c>
-      <c r="AC11" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AM11" s="5"/>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -2125,13 +2113,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -2139,46 +2127,46 @@
       <c r="F12" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="J12" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K12" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="P12" s="10" t="n">
+      <c r="P12" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -2188,11 +2176,11 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
-      <c r="AB12" s="8" t="n">
-        <v>40822426</v>
+      <c r="AB12" s="7" t="n">
+        <v>90494956</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -2201,12 +2189,12 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
@@ -2218,13 +2206,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>46</v>
@@ -2232,46 +2220,46 @@
       <c r="F13" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>76</v>
       </c>
+      <c r="J13" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="n">
         <v>9</v>
       </c>
       <c r="N13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="10" t="n">
-        <v>0.012992</v>
+      <c r="P13" s="9" t="n">
+        <v>0.025004</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -2281,11 +2269,11 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
-      <c r="AB13" s="8" t="n">
-        <v>90494406</v>
+      <c r="AB13" s="7" t="n">
+        <v>40822426</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -2294,12 +2282,12 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -2311,73 +2299,89 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="9" t="n">
+        <v>0.012992</v>
+      </c>
       <c r="Q14" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
+      <c r="S14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="U14" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
+      <c r="X14" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="5"/>
+      <c r="AB14" s="7" t="n">
+        <v>90494406</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
+      <c r="AJ14" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
+      <c r="AM14" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
@@ -2388,89 +2392,75 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="J15" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="K15" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="L15" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="M15" s="5" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P15" s="10" t="n">
-        <v>0.025004</v>
-      </c>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R15" s="5"/>
-      <c r="S15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="8" t="n">
-        <v>5449000045720</v>
-      </c>
-      <c r="AC15" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AM15" s="5"/>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -2481,13 +2471,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
@@ -2495,46 +2485,46 @@
       <c r="F16" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="J16" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="K16" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" s="10" t="n">
-        <v>0.012992</v>
+      <c r="P16" s="9" t="n">
+        <v>0.025004</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -2544,11 +2534,11 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="8" t="n">
-        <v>5449000193124</v>
+      <c r="AB16" s="7" t="n">
+        <v>5449000045720</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2557,12 +2547,12 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
@@ -2574,13 +2564,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>46</v>
@@ -2588,46 +2578,46 @@
       <c r="F17" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="J17" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="K17" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="10" t="n">
+      <c r="P17" s="9" t="n">
         <v>0.012992</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -2637,11 +2627,11 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="8" t="n">
-        <v>5449000189301</v>
+      <c r="AB17" s="7" t="n">
+        <v>5449000193124</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
@@ -2650,12 +2640,12 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
@@ -2667,13 +2657,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>46</v>
@@ -2681,46 +2671,46 @@
       <c r="F18" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="G18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="J18" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="K18" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="10" t="n">
-        <v>0.012012</v>
+      <c r="P18" s="9" t="n">
+        <v>0.012992</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -2730,11 +2720,11 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
-      <c r="AB18" s="8" t="n">
-        <v>5449000233615</v>
+      <c r="AB18" s="7" t="n">
+        <v>5449000189301</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -2743,12 +2733,12 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -2760,73 +2750,89 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>18</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="P19" s="5"/>
+      <c r="P19" s="9" t="n">
+        <v>0.012012</v>
+      </c>
       <c r="Q19" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="U19" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
+      <c r="X19" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="5"/>
+      <c r="AB19" s="7" t="n">
+        <v>5449000233615</v>
+      </c>
+      <c r="AC19" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="8"/>
-      <c r="AH19" s="8"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
+      <c r="AJ19" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
+      <c r="AM19" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -2837,89 +2843,75 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J20" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K20" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="L20" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>100</v>
+      </c>
       <c r="M20" s="5" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N20" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="10" t="n">
-        <v>0.025004</v>
-      </c>
+      <c r="P20" s="5"/>
       <c r="Q20" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R20" s="5"/>
-      <c r="S20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
       <c r="U20" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="8" t="n">
-        <v>4607174579309</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>101</v>
-      </c>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="7"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -2930,13 +2922,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>46</v>
@@ -2944,46 +2936,46 @@
       <c r="F21" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="G21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J21" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K21" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N21" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="O21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21" s="10" t="n">
+      <c r="P21" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2993,11 +2985,11 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
-      <c r="AB21" s="8" t="n">
-        <v>4607174577787</v>
+      <c r="AB21" s="7" t="n">
+        <v>4607174579309</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -3006,12 +2998,12 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
@@ -3023,13 +3015,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>46</v>
@@ -3037,46 +3029,46 @@
       <c r="F22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="G22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J22" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K22" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="10" t="n">
+      <c r="P22" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -3086,11 +3078,11 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
-      <c r="AB22" s="8" t="n">
-        <v>4607174579286</v>
+      <c r="AB22" s="7" t="n">
+        <v>4607174577787</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
@@ -3099,12 +3091,12 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
@@ -3116,13 +3108,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>46</v>
@@ -3130,46 +3122,46 @@
       <c r="F23" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="6" t="s">
+      <c r="G23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J23" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K23" s="5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="10" t="n">
+      <c r="P23" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -3179,11 +3171,11 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
-      <c r="AB23" s="8" t="n">
-        <v>4607174579323</v>
+      <c r="AB23" s="7" t="n">
+        <v>4607174579286</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -3192,12 +3184,12 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
@@ -3209,13 +3201,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>46</v>
@@ -3223,46 +3215,46 @@
       <c r="F24" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J24" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K24" s="5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P24" s="10" t="n">
-        <v>0.012012</v>
+      <c r="P24" s="9" t="n">
+        <v>0.025004</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -3272,11 +3264,11 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
-      <c r="AB24" s="8" t="n">
-        <v>4607174579729</v>
+      <c r="AB24" s="7" t="n">
+        <v>4607174579323</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -3285,12 +3277,12 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
@@ -3302,13 +3294,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>46</v>
@@ -3316,46 +3308,46 @@
       <c r="F25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="6" t="s">
+      <c r="G25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J25" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K25" s="5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="10" t="n">
+      <c r="P25" s="9" t="n">
         <v>0.012012</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -3365,11 +3357,11 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
-      <c r="AB25" s="8" t="n">
-        <v>4607174579248</v>
+      <c r="AB25" s="7" t="n">
+        <v>4607174579729</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
@@ -3378,12 +3370,12 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
@@ -3395,13 +3387,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>46</v>
@@ -3409,46 +3401,46 @@
       <c r="F26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="6" t="s">
+      <c r="G26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J26" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K26" s="5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="O26" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P26" s="10" t="n">
-        <v>0.009996</v>
+      <c r="P26" s="9" t="n">
+        <v>0.012012</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -3458,11 +3450,11 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="8" t="s">
-        <v>115</v>
+      <c r="AB26" s="7" t="n">
+        <v>4607174579248</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
@@ -3471,12 +3463,12 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
@@ -3488,13 +3480,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>46</v>
@@ -3502,46 +3494,46 @@
       <c r="F27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J27" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K27" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27" s="10" t="n">
+      <c r="N27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
@@ -3551,11 +3543,11 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
-      <c r="AB27" s="8" t="s">
-        <v>119</v>
+      <c r="AB27" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
@@ -3564,12 +3556,12 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
@@ -3581,13 +3573,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>46</v>
@@ -3595,48 +3587,48 @@
       <c r="F28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="G28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>98</v>
       </c>
+      <c r="J28" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="K28" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" s="10" t="n">
-        <v>0.009968</v>
+        <v>118</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="P28" s="9" t="n">
+        <v>0.009996</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V28" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5" t="n">
         <v>1</v>
@@ -3644,8 +3636,8 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="8" t="n">
-        <v>4607174579262</v>
+      <c r="AB28" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>121</v>
@@ -3657,12 +3649,12 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
@@ -3674,60 +3666,62 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>127</v>
+        <v>3</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="5" t="n">
+        <v>18</v>
+      </c>
       <c r="N29" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R29" s="14"/>
+        <v>122</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="9" t="n">
+        <v>0.009968</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V29" s="5"/>
+        <v>60</v>
+      </c>
+      <c r="V29" s="13"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5" t="n">
         <v>1</v>
@@ -3735,22 +3729,26 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC29" s="5"/>
+      <c r="AB29" s="7" t="n">
+        <v>4607174579262</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
+      <c r="AJ29" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AK29" s="5"/>
-      <c r="AL29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -3760,91 +3758,57 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="O30" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P30" s="15" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="P30" s="9"/>
       <c r="Q30" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R30" s="5"/>
-      <c r="S30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="13"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD30" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
@@ -3856,13 +3820,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
@@ -3870,75 +3834,69 @@
       <c r="F31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="H31" s="5" t="s">
         <v>127</v>
       </c>
+      <c r="I31" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="K31" s="5" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="M31" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="N31" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="P31" s="15" t="n">
+        <v>131</v>
+      </c>
+      <c r="P31" s="14" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R31" s="5"/>
+      <c r="Q31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R31" s="13"/>
       <c r="S31" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC31" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD31" s="5" t="s">
-        <v>138</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="AK31" s="5"/>
       <c r="AL31" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
@@ -3951,13 +3909,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3965,237 +3923,235 @@
       <c r="F32" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>148</v>
+      <c r="G32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M32" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5" t="n">
+        <v>46</v>
+      </c>
       <c r="N32" s="5" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P32" s="10" t="n">
-        <v>0.08</v>
+        <v>136</v>
+      </c>
+      <c r="P32" s="14" t="n">
+        <v>0.1</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="T32" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="U32" s="5" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="14"/>
+      <c r="X32" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
+      <c r="AB32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
+      <c r="AK32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL32" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="5" t="s">
-        <v>155</v>
-      </c>
+      <c r="AQ32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>148</v>
+        <v>2</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="P33" s="10" t="n">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="P33" s="14" t="n">
+        <v>0.1</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="U33" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="8"/>
+      <c r="AB33" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="AC33" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD33" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="AD33" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL33" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="AQ33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>148</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
       <c r="K34" s="5" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="P34" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P34" s="14"/>
       <c r="Q34" s="5" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="5" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="8"/>
-      <c r="AG34" s="8"/>
-      <c r="AH34" s="8"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
@@ -4208,13 +4164,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>46</v>
@@ -4222,74 +4178,70 @@
       <c r="F35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>167</v>
+      <c r="H35" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="N35" s="5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="P35" s="10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R35" s="14"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5" t="s">
-        <v>131</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="T35" s="5"/>
       <c r="U35" s="5" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X35" s="13"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB35" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="7"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
-      <c r="AF35" s="8"/>
-      <c r="AG35" s="8"/>
-      <c r="AH35" s="8"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="5"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL35" s="5" t="s">
-        <v>170</v>
-      </c>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4297,80 +4249,78 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>167</v>
+      <c r="H36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="5" t="n">
+        <v>31</v>
+      </c>
       <c r="N36" s="5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P36" s="10" t="n">
-        <v>0.04</v>
+        <v>160</v>
+      </c>
+      <c r="P36" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5" t="s">
-        <v>164</v>
-      </c>
+      <c r="T36" s="5"/>
       <c r="U36" s="5" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB36" s="8"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="7"/>
       <c r="AC36" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
-      <c r="AF36" s="8"/>
-      <c r="AG36" s="8"/>
-      <c r="AH36" s="8"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
@@ -4378,7 +4328,7 @@
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4386,102 +4336,100 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>167</v>
+      <c r="H37" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="16"/>
+      <c r="M37" s="5" t="n">
+        <v>31</v>
+      </c>
       <c r="N37" s="5" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="P37" s="10" t="n">
-        <v>0.04</v>
+        <v>165</v>
+      </c>
+      <c r="P37" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
+      <c r="T37" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="U37" s="5" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA37" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB37" s="8"/>
+      <c r="X37" s="5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="7"/>
       <c r="AC37" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
-      <c r="AQ37" s="5" t="s">
-        <v>175</v>
-      </c>
+      <c r="AQ37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -4489,133 +4437,137 @@
       <c r="F38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>181</v>
+      <c r="G38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M38" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5" t="n">
+        <v>47</v>
+      </c>
       <c r="N38" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="P38" s="15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="T38" s="5"/>
+        <v>172</v>
+      </c>
+      <c r="P38" s="9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R38" s="13"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="U38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
+      <c r="AA38" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="0"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM38" s="5"/>
+        <v>173</v>
+      </c>
+      <c r="AM38" s="0"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
+      <c r="AQ38" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>181</v>
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="P39" s="15" t="n">
-        <v>0</v>
+        <v>176</v>
+      </c>
+      <c r="P39" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="S39" s="5"/>
       <c r="T39" s="5" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -4624,125 +4576,121 @@
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="AA39" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB39" s="7"/>
       <c r="AC39" s="5" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL39" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AL39" s="5"/>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
+      <c r="AQ39" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>181</v>
+        <v>2</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="P40" s="15" t="n">
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="P40" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="R40" s="5"/>
-      <c r="S40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
       <c r="U40" s="5" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5" t="n">
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5" t="n">
-        <v>5000034</v>
-      </c>
+      <c r="Z40" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB40" s="7"/>
       <c r="AC40" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL40" s="5" t="s">
-        <v>187</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="AL40" s="5"/>
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4750,52 +4698,66 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="K41" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M41" s="5"/>
-      <c r="N41" s="16" t="s">
-        <v>199</v>
+        <v>37</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="P41" s="10" t="n">
-        <v>0</v>
+        <v>187</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>0.1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U41" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
+      <c r="X41" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -4808,8 +4770,12 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
+      <c r="AK41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL41" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
@@ -4821,59 +4787,75 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="K42" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="L42" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="M42" s="5"/>
-      <c r="N42" s="16" t="s">
-        <v>204</v>
+      <c r="N42" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="P42" s="10" t="n">
+        <v>192</v>
+      </c>
+      <c r="P42" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="S42" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="T42" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U42" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="X42" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC42" s="5"/>
+      <c r="AB42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -4881,8 +4863,12 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
+      <c r="AK42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL42" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
@@ -4894,59 +4880,75 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="K43" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="16" t="s">
-        <v>209</v>
+        <v>39</v>
+      </c>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="P43" s="10" t="n">
+        <v>196</v>
+      </c>
+      <c r="P43" s="14" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="S43" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="T43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="U43" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
+      <c r="X43" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC43" s="5"/>
+      <c r="AB43" s="5" t="n">
+        <v>5000034</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -4954,29 +4956,35 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
+      <c r="AK43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL43" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
+      <c r="AQ43" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
@@ -4984,30 +4992,30 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="16" t="s">
-        <v>209</v>
+        <v>40</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="M44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P44" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="P44" s="9"/>
       <c r="Q44" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -5016,9 +5024,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -5037,19 +5043,19 @@
     </row>
     <row r="45" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
@@ -5057,30 +5063,30 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="O45" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="P45" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="R45" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
@@ -5089,8 +5095,8 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="7" t="s">
-        <v>215</v>
+      <c r="AB45" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -5108,8 +5114,227 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
     </row>
+    <row r="46" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="L46" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="M46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="L47" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="L48" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ45"/>
+  <autoFilter ref="A1:AQ48"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5134,17 +5359,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>175</v>
+      <c r="A1" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>171</v>
+      <c r="A2" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5171,53 +5396,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="19" t="s">
+      <c r="G1" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>220</v>
+      <c r="K1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="20" t="s">
-        <v>221</v>
+      <c r="B4" s="19" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU_SAND/Data/KPIs_2018/Canteen PoS 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Canteen PoS 2018.xlsx
@@ -13,30 +13,26 @@
     <sheet name="Alcomarket" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$44</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Canteen!$A$1:$AQ$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Canteen!$A$1:$AQ$41</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="225">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -179,22 +175,19 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">RD38010011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDARD 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canteen</t>
   </si>
   <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Представленность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD38010011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 1</t>
   </si>
   <si>
     <t xml:space="preserve">Ассортимент</t>
@@ -337,16 +330,25 @@
     <t xml:space="preserve">Фьюз Лимон - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000045720, 5449000236777</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Berry - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лесн.ягоды - 0.5л</t>
   </si>
   <si>
+    <t xml:space="preserve">5449000193124, 5449000259455</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fuze Lemon - 0.5L</t>
   </si>
   <si>
     <t xml:space="preserve">Фьюз Лимон - 0.5л</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5449000189301, 5449000235947</t>
   </si>
   <si>
     <t xml:space="preserve">Fuze Green Strawberry-Raspberry - 0.5L</t>
@@ -441,15 +443,12 @@
     <t xml:space="preserve">Добрый - Персик-Яблоко - 0.33л</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDARD 17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Активации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 17</t>
-  </si>
-  <si>
     <t xml:space="preserve">Активация</t>
   </si>
   <si>
@@ -507,13 +506,10 @@
     <t xml:space="preserve">Cash Zone</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDARD 22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDARD 22</t>
   </si>
   <si>
     <t xml:space="preserve">Холодильник</t>
@@ -756,11 +752,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -821,7 +818,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,12 +833,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -861,6 +864,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -894,7 +904,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -947,6 +957,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -959,7 +973,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1030,7 +1044,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1057,37 +1071,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:48"/>
+  <dimension ref="1:45"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="AA13" activeCellId="0" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="0" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="13" min="11" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="52.2753036437247"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="1" width="50.5587044534413"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="1" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="23" min="21" style="1" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="26" min="24" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="31" min="30" style="1" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="34" min="32" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="42" min="35" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="1" width="40.5991902834008"/>
     <col collapsed="false" hidden="false" max="1009" min="44" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1010" style="0" width="9.10526315789474"/>
   </cols>
@@ -1238,44 +1252,60 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="28.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F2" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -1304,75 +1334,89 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="5" t="n">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>45</v>
-      </c>
       <c r="N3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="9" t="n">
+        <v>0.024996</v>
+      </c>
       <c r="Q3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="U3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="X3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="5"/>
+      <c r="AB3" s="7" t="n">
+        <v>5449000008046</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AJ3" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
+      <c r="AM3" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AN3" s="5"/>
       <c r="AO3" s="5"/>
       <c r="AP3" s="5"/>
@@ -1383,13 +1427,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>46</v>
@@ -1398,45 +1442,45 @@
         <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K4" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P4" s="9" t="n">
         <v>0.024996</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -1447,10 +1491,10 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="7" t="n">
-        <v>5449000008046</v>
+        <v>5449000020987</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
@@ -1459,12 +1503,12 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
@@ -1476,13 +1520,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
@@ -1491,91 +1535,91 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="10"/>
       <c r="M5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P5" s="9" t="n">
-        <v>0.024996</v>
+        <v>65</v>
+      </c>
+      <c r="P5" s="11" t="n">
+        <v>0.014004</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
       <c r="X5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
       <c r="AB5" s="7" t="n">
-        <v>5449000020987</v>
+        <v>54491472</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
+      <c r="AQ5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>46</v>
@@ -1584,91 +1628,91 @@
         <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="11" t="n">
+        <v>67</v>
+      </c>
+      <c r="P6" s="9" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R6" s="5"/>
       <c r="S6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
       <c r="X6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
       <c r="AB6" s="7" t="n">
-        <v>54491472</v>
+        <v>54491069</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN6" s="5"/>
       <c r="AO6" s="5"/>
       <c r="AP6" s="5"/>
-      <c r="AQ6" s="10"/>
+      <c r="AQ6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>46</v>
@@ -1677,45 +1721,45 @@
         <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P7" s="9" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -1726,10 +1770,10 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="7" t="n">
-        <v>54491069</v>
+        <v>40822938</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
@@ -1738,12 +1782,12 @@
       <c r="AH7" s="7"/>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN7" s="5"/>
       <c r="AO7" s="5"/>
@@ -1755,13 +1799,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>46</v>
@@ -1770,45 +1814,45 @@
         <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K8" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P8" s="9" t="n">
         <v>0.014004</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -1819,24 +1863,24 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="7" t="n">
-        <v>40822938</v>
+        <v>5449000000729</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
@@ -1848,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>46</v>
@@ -1863,45 +1907,45 @@
         <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="K9" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="9" t="n">
-        <v>0.014004</v>
+        <v>0.013992</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U9" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -1912,10 +1956,10 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="7" t="n">
-        <v>5449000000729</v>
+        <v>5449000000712</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1924,12 +1968,12 @@
       <c r="AH9" s="5"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
@@ -1941,89 +1985,73 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="5"/>
       <c r="N10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="9" t="n">
-        <v>0.013992</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="5"/>
       <c r="Q10" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
       <c r="U10" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
-      <c r="AB10" s="7" t="n">
-        <v>5449000000712</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
       <c r="AI10" s="5"/>
-      <c r="AJ10" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
-      <c r="AM10" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AM10" s="5"/>
       <c r="AN10" s="5"/>
       <c r="AO10" s="5"/>
       <c r="AP10" s="5"/>
@@ -2034,75 +2062,89 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="K11" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>45</v>
-      </c>
       <c r="N11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="5"/>
+      <c r="O11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="9" t="n">
+        <v>0.025004</v>
+      </c>
       <c r="Q11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="U11" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="X11" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="5"/>
+      <c r="AB11" s="7" t="n">
+        <v>90494956</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
+      <c r="AJ11" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
+      <c r="AM11" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
@@ -2113,13 +2155,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>46</v>
@@ -2128,45 +2170,45 @@
         <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="K12" s="5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="n">
         <v>9</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -2177,10 +2219,10 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="7" t="n">
-        <v>90494956</v>
+        <v>40822426</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -2189,12 +2231,12 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
@@ -2206,13 +2248,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>46</v>
@@ -2221,45 +2263,45 @@
         <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="K13" s="5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="n">
         <v>9</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="9" t="n">
-        <v>0.025004</v>
+        <v>0.012992</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
@@ -2270,10 +2312,10 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="7" t="n">
-        <v>40822426</v>
+        <v>90494406</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -2282,12 +2324,12 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
@@ -2299,89 +2341,73 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="n">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="9" t="n">
-        <v>0.012992</v>
-      </c>
+      <c r="O14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" s="5"/>
       <c r="Q14" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R14" s="5"/>
-      <c r="S14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
-      <c r="AB14" s="7" t="n">
-        <v>90494406</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AM14" s="5"/>
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
@@ -2392,75 +2418,89 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="K15" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>45</v>
-      </c>
       <c r="N15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="P15" s="5"/>
+      <c r="O15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="9" t="n">
+        <v>0.025004</v>
+      </c>
       <c r="Q15" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="U15" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
+      <c r="X15" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="5"/>
+      <c r="AB15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC15" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
+      <c r="AJ15" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
+      <c r="AM15" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
@@ -2471,13 +2511,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
@@ -2486,45 +2526,45 @@
         <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="K16" s="5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="9" t="n">
-        <v>0.025004</v>
+        <v>0.012992</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R16" s="5"/>
       <c r="S16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
@@ -2534,11 +2574,11 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
-      <c r="AB16" s="7" t="n">
-        <v>5449000045720</v>
+      <c r="AB16" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2547,12 +2587,12 @@
       <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
       <c r="AM16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
@@ -2564,13 +2604,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>46</v>
@@ -2579,45 +2619,45 @@
         <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="K17" s="5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P17" s="9" t="n">
         <v>0.012992</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
@@ -2627,11 +2667,11 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
-      <c r="AB17" s="7" t="n">
-        <v>5449000193124</v>
+      <c r="AB17" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
@@ -2640,12 +2680,12 @@
       <c r="AH17" s="5"/>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
       <c r="AM17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
@@ -2657,13 +2697,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>46</v>
@@ -2672,45 +2712,45 @@
         <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="K18" s="5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="n">
         <v>13</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P18" s="9" t="n">
-        <v>0.012992</v>
+        <v>0.012012</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="U18" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
@@ -2721,10 +2761,10 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="7" t="n">
-        <v>5449000189301</v>
+        <v>5449000233615</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
@@ -2733,12 +2773,12 @@
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
       <c r="AM18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
@@ -2750,89 +2790,73 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="n">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="P19" s="9" t="n">
-        <v>0.012012</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="5"/>
       <c r="Q19" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
-      <c r="AB19" s="7" t="n">
-        <v>5449000233615</v>
-      </c>
-      <c r="AC19" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
       <c r="AI19" s="5"/>
-      <c r="AJ19" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AM19" s="5"/>
       <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
@@ -2843,75 +2867,89 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K20" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>45</v>
-      </c>
       <c r="N20" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="9" t="n">
+        <v>0.025004</v>
+      </c>
       <c r="Q20" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="U20" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="X20" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="5"/>
+      <c r="AB20" s="7" t="n">
+        <v>4607174579309</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
       <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
+      <c r="AJ20" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
+      <c r="AM20" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
@@ -2922,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>46</v>
@@ -2937,45 +2975,45 @@
         <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P21" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="U21" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
@@ -2986,10 +3024,10 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="7" t="n">
-        <v>4607174579309</v>
+        <v>4607174577787</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
@@ -2998,12 +3036,12 @@
       <c r="AH21" s="5"/>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
       <c r="AM21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN21" s="5"/>
       <c r="AO21" s="5"/>
@@ -3015,13 +3053,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>46</v>
@@ -3030,45 +3068,45 @@
         <v>3</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P22" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U22" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
@@ -3079,10 +3117,10 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="7" t="n">
-        <v>4607174577787</v>
+        <v>4607174579286</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
@@ -3091,12 +3129,12 @@
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
       <c r="AM22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
@@ -3108,13 +3146,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>46</v>
@@ -3123,45 +3161,45 @@
         <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P23" s="9" t="n">
         <v>0.025004</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="U23" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U23" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
@@ -3172,10 +3210,10 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="7" t="n">
-        <v>4607174579286</v>
+        <v>4607174579323</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
@@ -3184,12 +3222,12 @@
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
       <c r="AM23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
@@ -3201,13 +3239,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>46</v>
@@ -3216,45 +3254,45 @@
         <v>3</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P24" s="9" t="n">
-        <v>0.025004</v>
+        <v>0.012012</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="U24" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U24" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
@@ -3265,10 +3303,10 @@
       <c r="Z24" s="5"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="7" t="n">
-        <v>4607174579323</v>
+        <v>4607174579729</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
@@ -3277,12 +3315,12 @@
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
       <c r="AM24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
@@ -3294,13 +3332,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>46</v>
@@ -3309,45 +3347,45 @@
         <v>3</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>110</v>
+      <c r="N25" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P25" s="9" t="n">
         <v>0.012012</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U25" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
@@ -3358,10 +3396,10 @@
       <c r="Z25" s="5"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="7" t="n">
-        <v>4607174579729</v>
+        <v>4607174579248</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
@@ -3370,12 +3408,12 @@
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
       <c r="AM25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
@@ -3387,13 +3425,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>46</v>
@@ -3402,45 +3440,45 @@
         <v>3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P26" s="9" t="n">
-        <v>0.012012</v>
+        <v>0.009996</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U26" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -3450,11 +3488,11 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
-      <c r="AB26" s="7" t="n">
-        <v>4607174579248</v>
+      <c r="AB26" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
@@ -3463,12 +3501,12 @@
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
       <c r="AM26" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
@@ -3480,13 +3518,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>46</v>
@@ -3495,45 +3533,45 @@
         <v>3</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>114</v>
+      <c r="N27" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P27" s="9" t="n">
         <v>0.009996</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="U27" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="U27" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
@@ -3544,10 +3582,10 @@
       <c r="Z27" s="5"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
@@ -3556,12 +3594,12 @@
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
       <c r="AM27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
@@ -3573,13 +3611,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>46</v>
@@ -3588,47 +3626,47 @@
         <v>3</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="n">
         <v>18</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P28" s="9" t="n">
-        <v>0.009996</v>
+        <v>0.009968</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V28" s="5"/>
+      <c r="V28" s="14"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5" t="n">
         <v>1</v>
@@ -3636,11 +3674,11 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="5"/>
-      <c r="AB28" s="7" t="s">
-        <v>120</v>
+      <c r="AB28" s="7" t="n">
+        <v>4607174579262</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
@@ -3649,12 +3687,12 @@
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
       <c r="AM28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
@@ -3666,62 +3704,60 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L29" s="5"/>
-      <c r="M29" s="5" t="n">
-        <v>18</v>
-      </c>
+      <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="P29" s="9" t="n">
-        <v>0.009968</v>
-      </c>
-      <c r="Q29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="T29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V29" s="13"/>
+      <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5" t="n">
         <v>1</v>
@@ -3729,26 +3765,22 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="7" t="n">
-        <v>4607174579262</v>
-      </c>
-      <c r="AC29" s="5" t="s">
-        <v>122</v>
-      </c>
+      <c r="AB29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
-      <c r="AJ29" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AL29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
@@ -3758,57 +3790,91 @@
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="D30" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F30" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="K30" s="5" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="L30" s="5"/>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="P30" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="P30" s="15" t="n">
+        <v>0.1</v>
+      </c>
       <c r="Q30" s="5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="13"/>
+      <c r="S30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="5"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
+      <c r="X30" s="5" t="n">
+        <v>8</v>
+      </c>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="5"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
+      <c r="AB30" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
+      <c r="AG30" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AK30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL30" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
@@ -3820,13 +3886,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
@@ -3835,68 +3901,74 @@
         <v>2</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L31" s="5"/>
-      <c r="M31" s="5" t="n">
-        <v>46</v>
-      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P31" s="14" t="n">
+        <v>144</v>
+      </c>
+      <c r="P31" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R31" s="13"/>
+      <c r="Q31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T31" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD31" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
+      <c r="AG31" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
       <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
+      <c r="AK31" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="AL31" s="5" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
@@ -3909,13 +3981,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>46</v>
@@ -3924,234 +3996,236 @@
         <v>2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5" t="n">
-        <v>46</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="P32" s="14" t="n">
-        <v>0.1</v>
+        <v>154</v>
+      </c>
+      <c r="P32" s="9" t="n">
+        <v>0.08</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T32" s="5"/>
       <c r="U32" s="5" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="X32" s="14"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
       <c r="AA32" s="5"/>
-      <c r="AB32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC32" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH32" s="5"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
       <c r="AI32" s="5"/>
       <c r="AJ32" s="5"/>
-      <c r="AK32" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL32" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
+      <c r="AQ32" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P33" s="14" t="n">
-        <v>0.1</v>
+        <v>160</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="R33" s="5"/>
-      <c r="S33" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
       <c r="U33" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
       <c r="AA33" s="5"/>
-      <c r="AB33" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="AB33" s="7"/>
       <c r="AC33" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD33" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH33" s="5"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
       <c r="AI33" s="5"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL33" s="5" t="s">
-        <v>145</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
+      <c r="AQ33" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="B34" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="F34" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="K34" s="5" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="P34" s="14"/>
       <c r="Q34" s="5" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
+      <c r="T34" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
+      <c r="X34" s="5" t="n">
+        <v>0.01</v>
+      </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
       <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
       <c r="AI34" s="5"/>
       <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
+      <c r="AK34" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AL34" s="5"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
@@ -4164,13 +4238,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>46</v>
@@ -4179,7 +4253,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>149</v>
@@ -4188,60 +4262,66 @@
         <v>150</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>47</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="16"/>
       <c r="N35" s="5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="P35" s="9" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="T35" s="5"/>
+        <v>0.04</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="U35" s="5" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="13"/>
+      <c r="X35" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="7"/>
+      <c r="AA35" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB35" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
       <c r="AF35" s="7"/>
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
-      <c r="AI35" s="5"/>
+      <c r="AI35" s="0"/>
       <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
+      <c r="AK35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM35" s="0"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4249,22 +4329,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>149</v>
@@ -4273,41 +4353,43 @@
         <v>150</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L36" s="5"/>
-      <c r="M36" s="5" t="n">
-        <v>31</v>
-      </c>
+      <c r="M36" s="16"/>
       <c r="N36" s="5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P36" s="9" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="T36" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="U36" s="5" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
+      <c r="AA36" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="AB36" s="7"/>
       <c r="AC36" s="5" t="s">
         <v>162</v>
@@ -4320,7 +4402,7 @@
       <c r="AI36" s="5"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AL36" s="5"/>
       <c r="AM36" s="5"/>
@@ -4328,7 +4410,7 @@
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4336,22 +4418,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>149</v>
@@ -4360,43 +4442,43 @@
         <v>150</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L37" s="5"/>
-      <c r="M37" s="5" t="n">
-        <v>31</v>
-      </c>
+      <c r="M37" s="16"/>
       <c r="N37" s="5" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="P37" s="9" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5" t="s">
-        <v>167</v>
-      </c>
+      <c r="T37" s="5"/>
       <c r="U37" s="5" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="5" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA37" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="AB37" s="7"/>
       <c r="AC37" s="5" t="s">
         <v>162</v>
@@ -4409,27 +4491,29 @@
       <c r="AI37" s="5"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="AL37" s="5"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
+      <c r="AQ37" s="5" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>46</v>
@@ -4438,136 +4522,132 @@
         <v>2</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5" t="n">
-        <v>47</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="P38" s="9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5" t="s">
-        <v>133</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="P38" s="15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="T38" s="5"/>
       <c r="U38" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="0"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="5"/>
+      <c r="AH38" s="5"/>
+      <c r="AI38" s="5"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AM38" s="0"/>
+        <v>190</v>
+      </c>
+      <c r="AM38" s="5"/>
       <c r="AN38" s="5"/>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5"/>
-      <c r="AQ38" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="AQ38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="P39" s="9" t="n">
-        <v>0.04</v>
+        <v>192</v>
+      </c>
+      <c r="P39" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="T39" s="5" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -4576,121 +4656,125 @@
       </c>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB39" s="7"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="AC39" s="5" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
       <c r="AI39" s="5"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL39" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="AL39" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AM39" s="5"/>
       <c r="AN39" s="5"/>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5"/>
-      <c r="AQ39" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="AQ39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P40" s="9" t="n">
-        <v>0.04</v>
+        <v>196</v>
+      </c>
+      <c r="P40" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="U40" s="5" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5" t="n">
+      <c r="X40" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="Z40" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB40" s="7"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5" t="n">
+        <v>5000034</v>
+      </c>
       <c r="AC40" s="5" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
       <c r="AI40" s="5"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL40" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="AL40" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="AM40" s="5"/>
       <c r="AN40" s="5"/>
       <c r="AO40" s="5"/>
       <c r="AP40" s="5"/>
       <c r="AQ40" s="5" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4698,66 +4782,52 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>182</v>
+        <v>43</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
       <c r="K41" s="5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>186</v>
+        <v>201</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="P41" s="14" t="n">
-        <v>0.1</v>
+        <v>203</v>
+      </c>
+      <c r="P41" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="U41" s="5"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5"/>
@@ -4770,12 +4840,8 @@
       <c r="AH41" s="5"/>
       <c r="AI41" s="5"/>
       <c r="AJ41" s="5"/>
-      <c r="AK41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL41" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
       <c r="AM41" s="5"/>
       <c r="AN41" s="5"/>
       <c r="AO41" s="5"/>
@@ -4787,75 +4853,59 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="16" t="s">
         <v>182</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
       <c r="K42" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="L42" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="N42" s="5" t="s">
-        <v>191</v>
+      <c r="M42" s="5"/>
+      <c r="N42" s="16" t="s">
+        <v>207</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="P42" s="14" t="n">
+        <v>208</v>
+      </c>
+      <c r="P42" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S42" s="5"/>
       <c r="T42" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U42" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="U42" s="5"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC42" s="5" t="s">
-        <v>194</v>
-      </c>
+      <c r="AB42" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -4863,12 +4913,8 @@
       <c r="AH42" s="5"/>
       <c r="AI42" s="5"/>
       <c r="AJ42" s="5"/>
-      <c r="AK42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL42" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
       <c r="AM42" s="5"/>
       <c r="AN42" s="5"/>
       <c r="AO42" s="5"/>
@@ -4880,75 +4926,59 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>182</v>
+        <v>43</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="L43" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="P43" s="14" t="n">
+        <v>213</v>
+      </c>
+      <c r="P43" s="9" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S43" s="5"/>
       <c r="T43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U43" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="U43" s="5"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="5" t="n">
-        <v>5000034</v>
-      </c>
-      <c r="AC43" s="5" t="s">
-        <v>197</v>
-      </c>
+      <c r="AB43" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -4956,32 +4986,26 @@
       <c r="AH43" s="5"/>
       <c r="AI43" s="5"/>
       <c r="AJ43" s="5"/>
-      <c r="AK43" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL43" s="5" t="s">
-        <v>190</v>
-      </c>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
       <c r="AM43" s="5"/>
       <c r="AN43" s="5"/>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5"/>
-      <c r="AQ43" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="AQ43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>199</v>
+      <c r="C44" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>200</v>
@@ -4992,26 +5016,26 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="M44" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="L44" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P44" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="P44" s="9"/>
       <c r="Q44" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5" t="s">
@@ -5024,7 +5048,9 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
+      <c r="AB44" s="6" t="s">
+        <v>216</v>
+      </c>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
@@ -5043,16 +5069,16 @@
     </row>
     <row r="45" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>182</v>
+        <v>43</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>200</v>
@@ -5063,21 +5089,21 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="M45" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P45" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="P45" s="9"/>
       <c r="Q45" s="5" t="s">
         <v>209</v>
       </c>
@@ -5096,7 +5122,7 @@
       <c r="Z45" s="5"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -5114,227 +5140,8 @@
       <c r="AP45" s="5"/>
       <c r="AQ45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="27.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AQ48"/>
+  <autoFilter ref="A1:AQ41"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5359,16 +5166,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5396,52 +5203,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.74898785425101"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>224</v>
       </c>
     </row>
